--- a/地聲文獻整理.xlsx
+++ b/地聲文獻整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11376BD8-B890-4BAE-B69F-5E2CE6C88A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A269F76-EC94-4AAB-9235-11EAD43FF5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="90" windowWidth="14120" windowHeight="9670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="歷年計畫" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="219">
   <si>
     <t>年分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,9 +158,6 @@
     <t>氣候與地震劇變對堰塞湖演變機制及災害防治之研究---子計畫:堰塞湖潰堤之湧浪與暴水位分析</t>
   </si>
   <si>
-    <t>https://www.grb.gov.tw/</t>
-  </si>
-  <si>
     <t>崩塌型土石流集水區總量估算之研究---總計畫暨子計畫：河岸崩塌入匯對主河道土石流之影響</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
   </si>
   <si>
     <t>土石流監測與預警系統之研究---總計畫暨子計畫：土石流監測與預報系統之研究(II)</t>
-  </si>
-  <si>
-    <t>利用有限元素波譜法建立河海三維水理水質數值模式(II)</t>
   </si>
   <si>
     <t>Transformation of ground vibration signal for debris flow monitoring and detection in alarm systems</t>
@@ -756,6 +750,30 @@
   </si>
   <si>
     <t>The Journal of Geology</t>
+  </si>
+  <si>
+    <t>https://www.grb.gov.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三維點源地聲傳遞理論解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地聲探測器複式探測</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註(新的論文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量積分法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地聲探測器運用於土石流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -833,9 +851,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -846,12 +873,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -863,6 +889,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1147,85 +1180,82 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="146.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>103</v>
@@ -1233,15 +1263,15 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>102</v>
@@ -1249,7 +1279,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>102</v>
@@ -1257,10 +1287,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1268,145 +1298,157 @@
         <v>34</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B17">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="B21">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B24">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B25">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B24">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25">
+      <c r="B26">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>44</v>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B27">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="C27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154" xr:uid="{8437F479-3E31-44ED-824F-7AD3264C015A}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662" xr:uid="{B44795D8-B98F-4682-87F9-BA118C2D8355}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326" xr:uid="{43711B8C-DEC6-4996-8A41-DD77846F0DAF}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650" xr:uid="{25CB1A42-B1B6-4707-95C1-9614B2CFF158}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256" xr:uid="{42D39AFD-2C9A-4F7F-A1F6-427A12CE5DF9}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147" xr:uid="{3F244EB7-CB70-4167-8F7E-00F5B1A04418}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481" xr:uid="{ED7A0780-2379-4F15-BD22-BA07D3008054}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811" xr:uid="{14526BCC-EE7A-44CE-A2F5-E790BB199B0B}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260" xr:uid="{C2725506-C431-414C-B8B1-7C43C3D1C619}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018" xr:uid="{BBFC6308-CDD7-4837-847C-344B715E2142}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834" xr:uid="{79D817E3-1EAF-421F-9404-E7A19712EED4}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037" xr:uid="{8D9DE5BA-584E-46EC-89A8-EF6554F17194}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895" xr:uid="{1D9DFF92-9470-4083-A72B-5D48B6B2BBA9}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359" xr:uid="{49C0F591-74CD-4FBA-AAEB-88A62954D3F5}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359" xr:uid="{298F8AF4-1CE3-42CA-80C4-A4CBD80F862D}"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851" xr:uid="{9797365A-D716-4EFC-9730-236A38D3A69E}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850" xr:uid="{5B13F867-E622-40FC-A0AB-8FE7496229AB}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037" xr:uid="{653424ED-6294-4922-B1A7-B3D2B005410E}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190" xr:uid="{9B9FE6D1-198C-4FCD-8D0C-CE27793235DC}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472" xr:uid="{436BAA29-2070-4613-8C15-5AD4063514D9}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666" xr:uid="{A45D7458-0B4A-4358-8B08-2A38FC444C46}"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209" xr:uid="{28A97F77-0B2B-4CA8-9AE5-A94FD1E6B039}"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076" xr:uid="{B337D2B1-8789-4DEB-B611-0B4A286DF3BA}"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754" xr:uid="{90349F3F-0F76-4E5B-B86A-088BDD51B999}"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=658836" xr:uid="{8362C6C6-2D56-450A-8AC4-4E67B33CC7FA}"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.grb.gov.tw/search/planDetail?id=629404" xr:uid="{DBFB3F4B-1EED-4F33-9272-A54092783D16}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154" xr:uid="{8437F479-3E31-44ED-824F-7AD3264C015A}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662" xr:uid="{B44795D8-B98F-4682-87F9-BA118C2D8355}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326" xr:uid="{43711B8C-DEC6-4996-8A41-DD77846F0DAF}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650" xr:uid="{25CB1A42-B1B6-4707-95C1-9614B2CFF158}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256" xr:uid="{42D39AFD-2C9A-4F7F-A1F6-427A12CE5DF9}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147" xr:uid="{3F244EB7-CB70-4167-8F7E-00F5B1A04418}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481" xr:uid="{ED7A0780-2379-4F15-BD22-BA07D3008054}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811" xr:uid="{14526BCC-EE7A-44CE-A2F5-E790BB199B0B}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260" xr:uid="{C2725506-C431-414C-B8B1-7C43C3D1C619}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018" xr:uid="{BBFC6308-CDD7-4837-847C-344B715E2142}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834" xr:uid="{79D817E3-1EAF-421F-9404-E7A19712EED4}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037" xr:uid="{8D9DE5BA-584E-46EC-89A8-EF6554F17194}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895" xr:uid="{1D9DFF92-9470-4083-A72B-5D48B6B2BBA9}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359" xr:uid="{49C0F591-74CD-4FBA-AAEB-88A62954D3F5}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359" xr:uid="{298F8AF4-1CE3-42CA-80C4-A4CBD80F862D}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851" xr:uid="{9797365A-D716-4EFC-9730-236A38D3A69E}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850" xr:uid="{5B13F867-E622-40FC-A0AB-8FE7496229AB}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037" xr:uid="{653424ED-6294-4922-B1A7-B3D2B005410E}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190" xr:uid="{9B9FE6D1-198C-4FCD-8D0C-CE27793235DC}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472" xr:uid="{436BAA29-2070-4613-8C15-5AD4063514D9}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666" xr:uid="{A45D7458-0B4A-4358-8B08-2A38FC444C46}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209" xr:uid="{28A97F77-0B2B-4CA8-9AE5-A94FD1E6B039}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076" xr:uid="{B337D2B1-8789-4DEB-B611-0B4A286DF3BA}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754" xr:uid="{90349F3F-0F76-4E5B-B86A-088BDD51B999}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=629404" xr:uid="{DBFB3F4B-1EED-4F33-9272-A54092783D16}"/>
+    <hyperlink ref="A1" r:id="rId26" xr:uid="{537ED051-F534-46D4-81AF-8CD942C30E0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1417,7 +1459,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1435,16 +1477,16 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1455,12 +1497,14 @@
       <c r="B2">
         <v>2019</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <v>1999</v>
       </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1469,7 +1513,10 @@
       <c r="B3">
         <v>2018</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1478,24 +1525,26 @@
       <c r="B4">
         <v>2017</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>1999</v>
       </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="12">
         <v>2004</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>2003</v>
       </c>
     </row>
@@ -1506,25 +1555,26 @@
       <c r="B6">
         <v>2016</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="12">
         <v>1999</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>2015</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="12">
+        <v>2005</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>2003</v>
       </c>
     </row>
@@ -1664,7 +1714,7 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -1680,94 +1730,94 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1776,679 +1826,679 @@
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7BEB4A-370B-42C8-9611-F257E831D3B1}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2478,200 +2528,200 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>102</v>
+      <c r="A16" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/地聲文獻整理.xlsx
+++ b/地聲文獻整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A269F76-EC94-4AAB-9235-11EAD43FF5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B4F30-2BE9-4674-91C4-53360FCFC1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="90" windowWidth="14120" windowHeight="9670" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="90" windowWidth="9650" windowHeight="9670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="歷年計畫" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="外文文獻" sheetId="2" r:id="rId3"/>
     <sheet name="(文末)參考文獻寫法" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">外文文獻!$A$2:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1185,7 +1188,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="146.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.09765625" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1458,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1713,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F232696-717E-4B90-9FB4-EFB1816E5F8C}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>

--- a/地聲文獻整理.xlsx
+++ b/地聲文獻整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B4F30-2BE9-4674-91C4-53360FCFC1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0596AA6-B0FE-41F3-9CD6-7C85A5152F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="90" windowWidth="9650" windowHeight="9670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="40" windowWidth="9650" windowHeight="9670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="歷年計畫" sheetId="3" r:id="rId1"/>

--- a/地聲文獻整理.xlsx
+++ b/地聲文獻整理.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFlab19\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0596AA6-B0FE-41F3-9CD6-7C85A5152F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="40" windowWidth="9650" windowHeight="9670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="45" windowWidth="9645" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="歷年計畫" sheetId="3" r:id="rId1"/>
@@ -782,7 +781,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1179,25 +1178,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2504C8-BFC2-4676-ABE6-919D6A56E706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.09765625" customWidth="1"/>
+    <col min="1" max="1" width="146.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1231,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1264,7 +1263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1271,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1336,7 +1335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1343,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1420,60 +1419,60 @@
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154" xr:uid="{8437F479-3E31-44ED-824F-7AD3264C015A}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662" xr:uid="{B44795D8-B98F-4682-87F9-BA118C2D8355}"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326" xr:uid="{43711B8C-DEC6-4996-8A41-DD77846F0DAF}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650" xr:uid="{25CB1A42-B1B6-4707-95C1-9614B2CFF158}"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256" xr:uid="{42D39AFD-2C9A-4F7F-A1F6-427A12CE5DF9}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147" xr:uid="{3F244EB7-CB70-4167-8F7E-00F5B1A04418}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481" xr:uid="{ED7A0780-2379-4F15-BD22-BA07D3008054}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811" xr:uid="{14526BCC-EE7A-44CE-A2F5-E790BB199B0B}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260" xr:uid="{C2725506-C431-414C-B8B1-7C43C3D1C619}"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018" xr:uid="{BBFC6308-CDD7-4837-847C-344B715E2142}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834" xr:uid="{79D817E3-1EAF-421F-9404-E7A19712EED4}"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037" xr:uid="{8D9DE5BA-584E-46EC-89A8-EF6554F17194}"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895" xr:uid="{1D9DFF92-9470-4083-A72B-5D48B6B2BBA9}"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359" xr:uid="{49C0F591-74CD-4FBA-AAEB-88A62954D3F5}"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359" xr:uid="{298F8AF4-1CE3-42CA-80C4-A4CBD80F862D}"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851" xr:uid="{9797365A-D716-4EFC-9730-236A38D3A69E}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850" xr:uid="{5B13F867-E622-40FC-A0AB-8FE7496229AB}"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037" xr:uid="{653424ED-6294-4922-B1A7-B3D2B005410E}"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190" xr:uid="{9B9FE6D1-198C-4FCD-8D0C-CE27793235DC}"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472" xr:uid="{436BAA29-2070-4613-8C15-5AD4063514D9}"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666" xr:uid="{A45D7458-0B4A-4358-8B08-2A38FC444C46}"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209" xr:uid="{28A97F77-0B2B-4CA8-9AE5-A94FD1E6B039}"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076" xr:uid="{B337D2B1-8789-4DEB-B611-0B4A286DF3BA}"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754" xr:uid="{90349F3F-0F76-4E5B-B86A-088BDD51B999}"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=629404" xr:uid="{DBFB3F4B-1EED-4F33-9272-A54092783D16}"/>
-    <hyperlink ref="A1" r:id="rId26" xr:uid="{537ED051-F534-46D4-81AF-8CD942C30E0F}"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=629404"/>
+    <hyperlink ref="A1" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.8984375" customWidth="1"/>
-    <col min="2" max="2" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1520,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1536,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +1566,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1581,7 +1580,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1597,7 +1596,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1604,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1612,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1620,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1644,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1676,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1685,7 +1684,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1696,42 +1695,42 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0" xr:uid="{A272C289-4576-4500-BC5C-974BAB706BCB}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0" xr:uid="{596AAEAC-1DE2-41E1-ACE3-391CCA4B78FE}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=8&amp;h1=0" xr:uid="{540631C0-8842-44EB-A396-DEC1B6E47E82}"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=10&amp;h1=0" xr:uid="{AF2700C3-2940-4BC2-A171-C1D9493F7499}"/>
-    <hyperlink ref="C2" r:id="rId5" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{6667E079-2664-42AA-9C8D-6A6F4D6C9F42}"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{CFFCF295-031C-479C-967D-22E71F38C9A3}"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{6F986847-3DFF-4C87-B0AC-E3EA8E51D997}"/>
-    <hyperlink ref="C7" r:id="rId8" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=30&amp;h1=0" xr:uid="{BC6A4567-E3EE-4A56-A2EE-9268F2F5B7F3}"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=34&amp;h1=0" xr:uid="{601F9548-B35D-499B-8EBB-D7BA9EEEB8FD}"/>
-    <hyperlink ref="E7" r:id="rId10" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0" xr:uid="{E4F4C82F-EF90-4B6C-9710-170622ACB965}"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0" xr:uid="{884EA630-E690-4F88-8D4F-531F83DE5F92}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=8&amp;h1=0"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=10&amp;h1=0"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
+    <hyperlink ref="C7" r:id="rId8" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=30&amp;h1=0"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=34&amp;h1=0"/>
+    <hyperlink ref="E7" r:id="rId10" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F232696-717E-4B90-9FB4-EFB1816E5F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>47</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
@@ -1797,7 +1796,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1819,15 +1818,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>115</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>116</v>
       </c>
@@ -1860,7 +1859,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>118</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>120</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>122</v>
       </c>
@@ -1893,7 +1892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>123</v>
       </c>
@@ -1904,7 +1903,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>125</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>126</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>128</v>
       </c>
@@ -1931,7 +1930,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>130</v>
       </c>
@@ -1950,7 +1949,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>132</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>134</v>
       </c>
@@ -1972,7 +1971,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>136</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>138</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>139</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>141</v>
       </c>
@@ -2016,7 +2015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>143</v>
       </c>
@@ -2027,7 +2026,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>145</v>
       </c>
@@ -2038,7 +2037,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>146</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>147</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>148</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
@@ -2079,7 +2078,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>49</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -2101,7 +2100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>152</v>
       </c>
@@ -2112,7 +2111,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>153</v>
       </c>
@@ -2120,7 +2119,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>154</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>158</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>160</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>161</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>163</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>164</v>
       </c>
@@ -2197,7 +2196,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>166</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>169</v>
       </c>
@@ -2219,7 +2218,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>172</v>
       </c>
@@ -2230,7 +2229,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>173</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>174</v>
       </c>
@@ -2252,7 +2251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
@@ -2274,7 +2273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>179</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>181</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>182</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>184</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>185</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>186</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>188</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
@@ -2356,7 +2355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>190</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>192</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>194</v>
       </c>
@@ -2389,7 +2388,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
@@ -2397,7 +2396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>196</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>198</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>200</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>201</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>203</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>205</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>207</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>208</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>210</v>
       </c>
@@ -2493,7 +2492,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>211</v>
       </c>
@@ -2507,49 +2506,49 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0" xr:uid="{F3A7386B-AC23-45AD-8152-E9C10791BDBE}"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0" xr:uid="{4918CECC-1C14-48C9-ABAD-3DA468921230}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7BEB4A-370B-42C8-9611-F257E831D3B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="219.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="219.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>55</v>
       </c>
@@ -2560,7 +2559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>59</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
         <v>68</v>
@@ -2613,7 +2612,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>60</v>
       </c>
@@ -2624,7 +2623,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>72</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>70</v>
@@ -2644,7 +2643,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>61</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>99</v>
       </c>
@@ -2663,12 +2662,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -2700,7 +2699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -2708,22 +2707,22 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
     </row>
   </sheetData>

--- a/地聲文獻整理.xlsx
+++ b/地聲文獻整理.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KFlab19\Desktop\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r8891\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859571AA-7809-49B8-B833-3107D97A7B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="45" windowWidth="9645" windowHeight="9675"/>
+    <workbookView xWindow="740" yWindow="40" windowWidth="12470" windowHeight="9560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="歷年計畫" sheetId="3" r:id="rId1"/>
     <sheet name="中文文獻" sheetId="1" r:id="rId2"/>
     <sheet name="外文文獻" sheetId="2" r:id="rId3"/>
-    <sheet name="(文末)參考文獻寫法" sheetId="4" r:id="rId4"/>
+    <sheet name="(文末)參考文獻寫法、種類" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">外文文獻!$A$2:$C$9</definedName>
@@ -150,10 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>歷年研究計畫(10年)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>延海地區因氣候衝擊產生之土石流研究</t>
   </si>
   <si>
@@ -766,22 +763,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>備註(新的論文)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>能量積分法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地聲探測器運用於土石流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷年研究計畫(近10年)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註(當年論文)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,36 +1179,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="146.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="146.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
@@ -1311,168 +1312,168 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662"/>
-    <hyperlink ref="A5" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650"/>
-    <hyperlink ref="A7" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260"/>
-    <hyperlink ref="A12" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834"/>
-    <hyperlink ref="A14" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037"/>
-    <hyperlink ref="A15" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895"/>
-    <hyperlink ref="A16" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359"/>
-    <hyperlink ref="A17" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359"/>
-    <hyperlink ref="A18" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850"/>
-    <hyperlink ref="A20" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037"/>
-    <hyperlink ref="A21" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190"/>
-    <hyperlink ref="A22" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472"/>
-    <hyperlink ref="A23" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666"/>
-    <hyperlink ref="A24" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209"/>
-    <hyperlink ref="A25" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076"/>
-    <hyperlink ref="A26" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754"/>
-    <hyperlink ref="A27" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=629404"/>
-    <hyperlink ref="A1" r:id="rId26"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.grb.gov.tw/search/planDetail?id=13552154" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.grb.gov.tw/search/planDetail?id=13140662" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.grb.gov.tw/search/planDetail?id=12670326" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.grb.gov.tw/search/planDetail?id=12285650" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.grb.gov.tw/search/planDetail?id=11891256" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.grb.gov.tw/search/planDetail?id=11477147" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.grb.gov.tw/search/planDetail?id=8108481" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.grb.gov.tw/search/planDetail?id=8217811" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.grb.gov.tw/search/planDetail?id=3084260" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.grb.gov.tw/search/planDetail?id=3054018" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.grb.gov.tw/search/planDetail?id=2939834" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.grb.gov.tw/search/planDetail?id=2379037" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.grb.gov.tw/search/planDetail?id=2222895" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.grb.gov.tw/search/planDetail?id=2158359" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.grb.gov.tw/search/planDetail?id=2126359" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.grb.gov.tw/search/planDetail?id=1733851" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.grb.gov.tw/search/planDetail?id=1592850" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.grb.gov.tw/search/planDetail?id=1427037" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.grb.gov.tw/search/planDetail?id=1280190" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.grb.gov.tw/search/planDetail?id=1239472" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.grb.gov.tw/search/planDetail?id=1095666" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.grb.gov.tw/search/planDetail?id=1034209" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.grb.gov.tw/search/planDetail?id=827076" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.grb.gov.tw/search/planDetail?id=734754" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.grb.gov.tw/search/planDetail?id=629404" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A1" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1521,7 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1537,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1567,7 @@
       <c r="E6" s="17"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1621,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1695,1034 +1696,1034 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=8&amp;h1=0"/>
-    <hyperlink ref="A6" r:id="rId4" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=10&amp;h1=0"/>
-    <hyperlink ref="C2" r:id="rId5" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
-    <hyperlink ref="C6" r:id="rId7" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0"/>
-    <hyperlink ref="C7" r:id="rId8" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=30&amp;h1=0"/>
-    <hyperlink ref="C5" r:id="rId9" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=34&amp;h1=0"/>
-    <hyperlink ref="E7" r:id="rId10" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=8&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=10&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId5" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=44&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C7" r:id="rId8" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=30&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C5" r:id="rId9" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=34&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E7" r:id="rId10" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=37&amp;h1=0" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="54" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="98.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C38" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C46" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C67" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C68" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C69" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B72" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B73" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="B74" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B74" t="s">
-        <v>93</v>
-      </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="B75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B75" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B76" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="B76" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0"/>
-    <hyperlink ref="A12" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=1&amp;h1=0" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A12" r:id="rId2" display="https://ndltd.ncl.edu.tw/cgi-bin/gs32/gsweb.cgi/ccd=Sq3wvP/record?r1=4&amp;h1=0" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="219.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="219.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>102</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>103</v>
       </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
     </row>
   </sheetData>
